--- a/data/Requirements.xlsx
+++ b/data/Requirements.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/swaroopmishra/Desktop/pythonscript/NLP_Project/nWave_softwareDesign/notebook/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/swaroopmishra/Desktop/pythonscript/NLP_Project/nWave_softwareDesign/notebook/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,9 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
-    <t>User Story ID</t>
-  </si>
-  <si>
     <t>User</t>
   </si>
   <si>
@@ -87,6 +84,9 @@
   </si>
   <si>
     <t>R08</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -515,7 +515,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -529,109 +529,109 @@
   <sheetData>
     <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" s="1"/>
     </row>
